--- a/out/gender/topics_edit.xlsx
+++ b/out/gender/topics_edit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>economy</t>
   </si>
@@ -588,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H14" sqref="H14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -816,6 +816,214 @@
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/out/gender/topics_edit.xlsx
+++ b/out/gender/topics_edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czymara.local\PowerFolders\Corona Survey (Alexander Langenkamp)\Topic model project\analysis\out\gender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czymara.local\PowerFolders\projects\CoronaTopicModels\analysis\out\gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,10 +182,10 @@
     <t>home</t>
   </si>
   <si>
-    <t>Work</t>
-  </si>
-  <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>Paid work</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -613,7 +613,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>47</v>
@@ -625,7 +625,7 @@
         <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>46</v>
@@ -824,7 +824,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>47</v>
@@ -836,7 +836,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>42</v>
